--- a/aoiConditions/train1Block19.xlsx
+++ b/aoiConditions/train1Block19.xlsx
@@ -22,28 +22,28 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/14_pokoto1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/18_popata2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/02_pitito3.wav</t>
-  </si>
-  <si>
-    <t>pngimages/14_coffee.png</t>
-  </si>
-  <si>
-    <t>pngimages/18_donut.png</t>
-  </si>
-  <si>
-    <t>pngimages/13_toast.png</t>
-  </si>
-  <si>
-    <t>pngimages/02_pallet.png</t>
+    <t>trainingaudio/24_takopa1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/01_kitipi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/07_pitapi2.wav</t>
+  </si>
+  <si>
+    <t>pngimages/24_banana.png</t>
+  </si>
+  <si>
+    <t>pngimages/22_egg.png</t>
+  </si>
+  <si>
+    <t>pngimages/01_gift.png</t>
+  </si>
+  <si>
+    <t>pngimages/07_suitcase.png</t>
   </si>
 </sst>
 </file>
